--- a/文档/指标/资金使用情况指标取数逻辑.xlsx
+++ b/文档/指标/资金使用情况指标取数逻辑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13140"/>
+    <workbookView windowWidth="28110" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>期初金额</t>
     </r>
     <r>
@@ -69,14 +61,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>资金流入</t>
     </r>
     <r>
@@ -109,7 +93,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 线下表预算与实际执行情况表的 “经营活动资金流出” + “（一）投资活动资金流出”</t>
+      <t xml:space="preserve"> = 线下表预算与实际执行情况表的 “经营活动资金流出” + “（一）投资活动资金流出” + （二）筹资活动资金流出</t>
     </r>
   </si>
 </sst>
@@ -1322,8 +1306,8 @@
   <sheetPr/>
   <dimension ref="E7:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
